--- a/output/fit_clients/fit_round_428.xlsx
+++ b/output/fit_clients/fit_round_428.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1901082336.769326</v>
+        <v>2022371327.913369</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08063379346318772</v>
+        <v>0.1109922884952872</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03508365027943894</v>
+        <v>0.02877759183755814</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>950541150.7247902</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2499608710.941873</v>
+        <v>2169119020.652778</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1452510286539131</v>
+        <v>0.1827364324888675</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03378061764663053</v>
+        <v>0.03946640895150025</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1249804472.916998</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4161215953.899473</v>
+        <v>4756767948.290051</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1229909319974634</v>
+        <v>0.1022526031943438</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02656873403139182</v>
+        <v>0.02674204751919793</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>154</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2080608002.578014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2669117830.640605</v>
+        <v>3331181382.728829</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09161257494453216</v>
+        <v>0.07026856154026508</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04709478177480738</v>
+        <v>0.04906057329638554</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>158</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1334559007.110182</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2134444296.830124</v>
+        <v>2606675293.005453</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1176327635795188</v>
+        <v>0.1215114846001473</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04286773692253961</v>
+        <v>0.03512035467383429</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>81</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1067222163.475653</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2098409603.254082</v>
+        <v>1929468643.511277</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07741998520649492</v>
+        <v>0.0745850411055968</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04630692173111265</v>
+        <v>0.03143063277250453</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>135</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1049204853.333843</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2616062645.860533</v>
+        <v>3168699497.927526</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2020919297006813</v>
+        <v>0.1814666400214026</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03166693141052544</v>
+        <v>0.02724167826587476</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>136</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1308031341.211818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1646196723.404214</v>
+        <v>2209773526.745717</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1320265270730529</v>
+        <v>0.1850851897502027</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02815014804990229</v>
+        <v>0.02444482114635755</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>823098437.4165719</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3764138419.99481</v>
+        <v>3992083936.549826</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1540279533934149</v>
+        <v>0.2099914291362755</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05434228923873668</v>
+        <v>0.04054294790579561</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>180</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1882069213.628775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2714328706.036557</v>
+        <v>3713939453.381203</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1831838786765885</v>
+        <v>0.1243002281093133</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04648246488089658</v>
+        <v>0.04830945697094356</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>177</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1357164276.043526</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2237372636.361798</v>
+        <v>2799610364.374643</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1486020205092821</v>
+        <v>0.142191572000676</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0387025835090561</v>
+        <v>0.03820805584715287</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>146</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1118686266.388316</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4454713958.360891</v>
+        <v>4130621339.563716</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06439243302413067</v>
+        <v>0.07838149425483473</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02610576908529556</v>
+        <v>0.02095910178749214</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>143</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2227357011.030336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3045902654.864155</v>
+        <v>2818893816.094912</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1524726446689845</v>
+        <v>0.1177099044550292</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02794641980688724</v>
+        <v>0.04276453857052992</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>137</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1522951358.565069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1341913833.910127</v>
+        <v>1414104993.634933</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07344583291552632</v>
+        <v>0.07386177706406816</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04907490378634351</v>
+        <v>0.04830830276697355</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>670956966.6247847</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2172373624.988525</v>
+        <v>2505629299.428885</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09458603405729557</v>
+        <v>0.07136263213072255</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04788372857240803</v>
+        <v>0.03529499326230772</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>88</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1086186872.594833</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3246099147.009647</v>
+        <v>3466939696.858601</v>
       </c>
       <c r="F17" t="n">
-        <v>0.106151262449844</v>
+        <v>0.1229033392199749</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04192089895513671</v>
+        <v>0.04045693646040455</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>126</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1623049645.401934</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3287998940.690526</v>
+        <v>2772614657.13905</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1850951320205829</v>
+        <v>0.1379904664885505</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0238606156608509</v>
+        <v>0.02154696585100914</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>140</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1643999479.824717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>994671791.8898102</v>
+        <v>1029833727.752413</v>
       </c>
       <c r="F19" t="n">
-        <v>0.178091798838433</v>
+        <v>0.1437395360007448</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02401708170828269</v>
+        <v>0.01663264997849115</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>497335923.893401</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2708989282.605494</v>
+        <v>2103311397.681312</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1278784932548488</v>
+        <v>0.1150647830571395</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02044597136408198</v>
+        <v>0.02917652846290072</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>58</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1354494592.146508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2612967472.0615</v>
+        <v>2448476771.10277</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0656017589772268</v>
+        <v>0.07378930145181865</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04125688739259512</v>
+        <v>0.0328040270807143</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1306483713.346231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3151022620.551184</v>
+        <v>3782562554.158896</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08724166186227883</v>
+        <v>0.1107631100526604</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05626827199184731</v>
+        <v>0.05083447131630834</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1575511362.782755</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1555429040.588382</v>
+        <v>1195309221.633387</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1509794637175755</v>
+        <v>0.1126313612413524</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03516903135329407</v>
+        <v>0.05320448729599506</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>777714496.9028218</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3668983802.39037</v>
+        <v>3377232169.664799</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1420319798662725</v>
+        <v>0.1449546840417826</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0331317677620191</v>
+        <v>0.03601467543489843</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>125</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1834491891.467942</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1166253364.437726</v>
+        <v>1426422699.460187</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08426841413415399</v>
+        <v>0.08099746691908637</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02184176737097296</v>
+        <v>0.01970891487379935</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>583126707.9739795</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>947163917.3562858</v>
+        <v>911602696.1547954</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1220476982729381</v>
+        <v>0.1160583122750276</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03579427673182859</v>
+        <v>0.03014656654050368</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>473581917.8334633</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3775993165.314669</v>
+        <v>3391402107.796284</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1408565489809487</v>
+        <v>0.1380985566260655</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02282946193169307</v>
+        <v>0.02528802725259249</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1887996603.933597</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2425553049.248563</v>
+        <v>2941448023.831702</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1312321909165166</v>
+        <v>0.09406602374922349</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03260698658232207</v>
+        <v>0.04631878266347209</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>138</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1212776486.024457</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4780432182.078449</v>
+        <v>5602454293.656593</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1336908138389346</v>
+        <v>0.1348804068497615</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03621402871549722</v>
+        <v>0.031794486422945</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>189</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2390216053.880165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1980136528.606554</v>
+        <v>1679614194.841091</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1201619630410323</v>
+        <v>0.09481060871716941</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03388168164997728</v>
+        <v>0.02423960174788269</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>990068299.5020617</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>972112132.0728849</v>
+        <v>918085331.3361058</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1117107586250877</v>
+        <v>0.09419603099500885</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03741011414768705</v>
+        <v>0.03949682626430116</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>486056071.1485537</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1352127674.302141</v>
+        <v>1275190665.363272</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1108897132248682</v>
+        <v>0.09258179564960585</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03279077026466088</v>
+        <v>0.03061720215638938</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>676063874.8984818</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2651433276.265906</v>
+        <v>2462855987.926171</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1570772351611605</v>
+        <v>0.1498512542444788</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04087497365978582</v>
+        <v>0.0510829731777005</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>129</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1325716663.463833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1405041019.568621</v>
+        <v>1552166300.550155</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07934051261199628</v>
+        <v>0.08606275406454091</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01891189506452174</v>
+        <v>0.0212812613959075</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>702520481.2019475</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>989601070.701259</v>
+        <v>1306380368.122242</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1153074389974779</v>
+        <v>0.08848864194163673</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03426730674702181</v>
+        <v>0.04295329914998645</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>494800556.2149899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3250904667.787634</v>
+        <v>2411406349.815643</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1454905426020435</v>
+        <v>0.1727664555132956</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02856076183337045</v>
+        <v>0.01813994763639337</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>108</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1625452295.702448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2623487758.300425</v>
+        <v>1949703455.833911</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08841016767995186</v>
+        <v>0.1087644353616458</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04136012020139468</v>
+        <v>0.02564377227473032</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>116</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1311743992.219133</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1425632709.801572</v>
+        <v>2090355405.984294</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1063782659103853</v>
+        <v>0.07386720149890776</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03203245971578529</v>
+        <v>0.03002483362307305</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>712816414.6781648</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1870332268.177881</v>
+        <v>1355867409.884858</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1821994551026211</v>
+        <v>0.1877893331277221</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0248850466365318</v>
+        <v>0.025499004776764</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>935166148.3593162</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1663871401.742083</v>
+        <v>1242203233.790502</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1232139374411571</v>
+        <v>0.1270800339333145</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04214108983346668</v>
+        <v>0.05430674350850843</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>831935626.0700078</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2245121718.311224</v>
+        <v>1985083269.117002</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1566206909538974</v>
+        <v>0.1276221173808807</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0448549142667588</v>
+        <v>0.04101414109087871</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>107</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1122560909.366572</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3830092496.872271</v>
+        <v>2777492318.435</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1261980564978002</v>
+        <v>0.1062576719928913</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03509854659565306</v>
+        <v>0.03592237825523462</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>140</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1915046266.034324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2497616507.740041</v>
+        <v>2983995664.432402</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1930020154097564</v>
+        <v>0.1912279696198156</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02306119660491747</v>
+        <v>0.02044410479636605</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>149</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1248808302.773834</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2075147594.823436</v>
+        <v>2124807262.313438</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0739672359652204</v>
+        <v>0.08386918873057539</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02320530604920784</v>
+        <v>0.02549124811482798</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1037573918.74877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1530039400.217986</v>
+        <v>1812930898.771243</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1212682514075104</v>
+        <v>0.1549459981316883</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04085442530504964</v>
+        <v>0.03560539838727995</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>765019643.6315312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3948558214.964792</v>
+        <v>3781378508.553307</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1323635718019602</v>
+        <v>0.1148175515266132</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05093825541077</v>
+        <v>0.03737604571387602</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>152</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1974279074.082646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4586743432.012658</v>
+        <v>3817900271.574785</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1406223941792113</v>
+        <v>0.1725827994084442</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05494605591943265</v>
+        <v>0.0512036622171081</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>116</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2293371748.442302</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2919500375.144369</v>
+        <v>4588229310.399194</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07289041791108075</v>
+        <v>0.1067157483878808</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02441409192927521</v>
+        <v>0.03533913585581726</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>140</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1459750284.760294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1302139694.675746</v>
+        <v>1580425462.372489</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1542398197445964</v>
+        <v>0.1194925487458835</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03448450523772894</v>
+        <v>0.03621302800706781</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>651069910.1509817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3620894090.55276</v>
+        <v>3371265095.27006</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1219231026463207</v>
+        <v>0.1603399361644905</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05022014774192744</v>
+        <v>0.0458802574117995</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>146</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1810447060.973471</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1072843389.530259</v>
+        <v>1115569345.275369</v>
       </c>
       <c r="F51" t="n">
-        <v>0.126283406554902</v>
+        <v>0.1442478378905921</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03647688568849878</v>
+        <v>0.03627552172058714</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>536421766.9472052</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5216910152.562994</v>
+        <v>4738533212.554805</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09182955192196486</v>
+        <v>0.1054836205314116</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05979858766479444</v>
+        <v>0.04471202576658014</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>176</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2608455061.157247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2714434557.589365</v>
+        <v>3446032788.851458</v>
       </c>
       <c r="F53" t="n">
-        <v>0.159423417399588</v>
+        <v>0.1739891594264824</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03029142294210628</v>
+        <v>0.03389411364414473</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>123</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1357217330.92856</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4800828983.685977</v>
+        <v>3360239168.607496</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1542754126719599</v>
+        <v>0.1241623772999173</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05097334893986796</v>
+        <v>0.04110565100442485</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>139</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2400414618.833763</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4771894095.888642</v>
+        <v>4449409441.373216</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2041280755100527</v>
+        <v>0.149724980555939</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02212698681417566</v>
+        <v>0.03174392815877099</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2385947056.935921</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1152058188.294634</v>
+        <v>1380320672.409856</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1571464542903014</v>
+        <v>0.1261380163854623</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04265594048993247</v>
+        <v>0.0383534888039735</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>576029187.9510874</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3759294290.286097</v>
+        <v>2763477739.223863</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1390431385570507</v>
+        <v>0.1556960857284094</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02464614194762842</v>
+        <v>0.0167370598628918</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>136</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1879647213.317162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1316072086.11351</v>
+        <v>1636752034.436219</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1737344683510797</v>
+        <v>0.1322964435442439</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03231991704540486</v>
+        <v>0.02916242934540974</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>658036090.9853841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3816510541.498635</v>
+        <v>3507957369.673282</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07901359586605351</v>
+        <v>0.09575381353420606</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03723657232839099</v>
+        <v>0.03303267044219534</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1908255255.574982</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3683597921.572341</v>
+        <v>3722459430.419558</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1870697510671993</v>
+        <v>0.1775143014231541</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0282936331821105</v>
+        <v>0.02639044689244291</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>134</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1841799102.85944</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2258816703.84647</v>
+        <v>3032946422.323061</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1547862932179259</v>
+        <v>0.1630186653966584</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02127749058337408</v>
+        <v>0.02815455744241088</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>147</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1129408402.306946</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1784655402.324594</v>
+        <v>1431662473.724735</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1690686254548338</v>
+        <v>0.1685924117794406</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04903185251035309</v>
+        <v>0.03403866680859607</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>892327726.9530796</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5253968560.690374</v>
+        <v>4095563249.286221</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07313474160934513</v>
+        <v>0.1049070573491882</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02868261929906904</v>
+        <v>0.02940377417245743</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2626984286.774525</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4122904037.535931</v>
+        <v>3850468534.017289</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1478834046006409</v>
+        <v>0.1544043351750614</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03271571991813827</v>
+        <v>0.03301649757332232</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>133</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2061452063.281829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5593249579.718057</v>
+        <v>5337446580.87572</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1283988431164509</v>
+        <v>0.1444351922701703</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02706315759361617</v>
+        <v>0.02998209107965157</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>153</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2796624713.380653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3483581318.856261</v>
+        <v>4222660922.484534</v>
       </c>
       <c r="F66" t="n">
-        <v>0.108213888376615</v>
+        <v>0.1515313574747139</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05092768254427226</v>
+        <v>0.04203045656494001</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>126</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1741790605.363075</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3208153480.61374</v>
+        <v>3023824832.637326</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08075127339492758</v>
+        <v>0.06266193366175042</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05030919860967262</v>
+        <v>0.04588085307805696</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>137</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1604076740.966888</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5714645253.889716</v>
+        <v>5153746552.465603</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1360861991828331</v>
+        <v>0.1055960882674857</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0477127505196047</v>
+        <v>0.04776989719637974</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>137</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2857322726.65917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1701446657.098766</v>
+        <v>1636538604.579321</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1531644706941175</v>
+        <v>0.1281318974076225</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05647845756325401</v>
+        <v>0.03662334483918597</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>850723294.9193989</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3069045912.71851</v>
+        <v>3574619361.48209</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09768669380679493</v>
+        <v>0.09744046510733255</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03241106550592246</v>
+        <v>0.0377918266299412</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>121</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1534522937.869662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3734643686.025609</v>
+        <v>4042458137.625626</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1728860964605002</v>
+        <v>0.1557529018918416</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02957401362025749</v>
+        <v>0.03209218061221735</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>156</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1867321854.25638</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2094985111.18211</v>
+        <v>1390119173.841178</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0774691422751459</v>
+        <v>0.07765750715398648</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04694895853373739</v>
+        <v>0.03741279587520932</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1047492486.644299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2171788268.211011</v>
+        <v>3006607260.820489</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07210655817745359</v>
+        <v>0.06850759762354772</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0447354201912564</v>
+        <v>0.04654203936456026</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>162</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1085894205.951655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3097023748.655759</v>
+        <v>2432731890.992791</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1698610724126126</v>
+        <v>0.1448046967886535</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02631482486477759</v>
+        <v>0.02259517853447476</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>146</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1548511931.354104</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1573149178.854711</v>
+        <v>2288430928.791284</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1529900787147985</v>
+        <v>0.1470054483602589</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02377714778911759</v>
+        <v>0.02408946870136392</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>786574593.7075874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4769691351.337975</v>
+        <v>4711521674.114873</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07620922334050458</v>
+        <v>0.09216341488483529</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0241906116428718</v>
+        <v>0.02904906405807188</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>103</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2384845692.676715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2234836540.223835</v>
+        <v>1937854346.556731</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1297863819254377</v>
+        <v>0.1438738621279695</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01964394391369515</v>
+        <v>0.03071141391941923</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1117418366.31256</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2918193621.843325</v>
+        <v>3296827614.182988</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09641985816871933</v>
+        <v>0.08648802925837196</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05262797093288973</v>
+        <v>0.04138678612092379</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>149</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1459096854.072592</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1592643561.800364</v>
+        <v>1674853392.406921</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1136294148383547</v>
+        <v>0.1348987142857075</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02866602194760066</v>
+        <v>0.03488459980756148</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>796321831.3407983</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3528244270.453605</v>
+        <v>4575330575.31216</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1113958759001429</v>
+        <v>0.09998777444378772</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03698474626245962</v>
+        <v>0.02794237163399444</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1764122111.246511</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3961097863.891561</v>
+        <v>3985308190.180179</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1097858380858905</v>
+        <v>0.1051262731904147</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02819338987834138</v>
+        <v>0.02311336815515715</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1980548893.729041</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5096781544.945826</v>
+        <v>5646909000.068769</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1756971227747519</v>
+        <v>0.1333526120751164</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02362971842523649</v>
+        <v>0.02639748716246769</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>149</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2548390751.038449</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2380575332.875361</v>
+        <v>1989435971.468314</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1424084876893422</v>
+        <v>0.1239808039446911</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03709522464159699</v>
+        <v>0.03696351124447667</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1190287699.102216</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2369162403.659052</v>
+        <v>2454289576.665082</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1036377887910716</v>
+        <v>0.1072879288667133</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03211284081616698</v>
+        <v>0.03734204204992637</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1184581152.798082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2908690255.77719</v>
+        <v>3064032208.745696</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1301006465332374</v>
+        <v>0.1453324550162367</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05180083536117212</v>
+        <v>0.04860934435281364</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>161</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1454345177.964509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2058299491.512461</v>
+        <v>2664407778.930438</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1240518733205651</v>
+        <v>0.1626542006707798</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02439815074939662</v>
+        <v>0.02663250142973272</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1029149781.514381</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1242498304.147371</v>
+        <v>916553203.2622035</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1546710689500046</v>
+        <v>0.1744924810335937</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0343859578945521</v>
+        <v>0.04445985844209367</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>621249218.5710815</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3618388103.12079</v>
+        <v>2630107942.810125</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1433685615710872</v>
+        <v>0.1767058029847784</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03258910599829237</v>
+        <v>0.03151345774649748</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>170</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1809194143.153494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2645446561.868358</v>
+        <v>3139567053.821825</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1009148355335494</v>
+        <v>0.147066013949878</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02570468931998151</v>
+        <v>0.02958864985962392</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>142</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1322723345.040504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1632158988.932672</v>
+        <v>1309785976.182996</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1055099288385928</v>
+        <v>0.08472040864403656</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05365589763967329</v>
+        <v>0.03943952261212268</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>816079497.4020736</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1589908359.951673</v>
+        <v>1704497304.552876</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1436625011489343</v>
+        <v>0.1950750647050706</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05597089724571869</v>
+        <v>0.03870630721234139</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>794954206.9512476</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1818111105.583977</v>
+        <v>2681084680.443121</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08955325208709028</v>
+        <v>0.1000457941502097</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04369029466877832</v>
+        <v>0.04675613851646477</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>121</v>
-      </c>
-      <c r="J92" t="n">
-        <v>909055485.2218606</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3766750276.941699</v>
+        <v>4811063001.750166</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1152143455810365</v>
+        <v>0.09786615739933968</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04874911642978313</v>
+        <v>0.053863690859264</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1883375154.188807</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1745238077.024089</v>
+        <v>2185679659.762628</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1566776258066016</v>
+        <v>0.1432195630244333</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04102208544581089</v>
+        <v>0.0368195532481498</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>872619003.7808979</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2626744100.166114</v>
+        <v>2513033888.976278</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1059081416769549</v>
+        <v>0.1282361932282412</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04193592916416623</v>
+        <v>0.03905443337492248</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>104</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1313372076.957069</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1504890903.990541</v>
+        <v>2050919257.041014</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1393168227749195</v>
+        <v>0.1003722513425923</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03903847666684907</v>
+        <v>0.04653268447954829</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>752445491.858806</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4982956138.610144</v>
+        <v>3829032222.718728</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1557075112871271</v>
+        <v>0.1667683024675071</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02375329972351611</v>
+        <v>0.02482083383756772</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>137</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2491478204.76263</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3801189102.00804</v>
+        <v>3727529196.496853</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1232391065882863</v>
+        <v>0.0806677247069785</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0281692773251608</v>
+        <v>0.02591807473584077</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>114</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1900594590.029351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2753223165.508172</v>
+        <v>3004482226.642838</v>
       </c>
       <c r="F99" t="n">
-        <v>0.12503792539812</v>
+        <v>0.133012328060863</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02546914523509195</v>
+        <v>0.03057460231981164</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>134</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1376611550.849245</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4078679325.290404</v>
+        <v>4000086520.615282</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1760678274434198</v>
+        <v>0.1631614237904364</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02503283096199144</v>
+        <v>0.02221511475175085</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>130</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2039339739.60531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2178151377.956519</v>
+        <v>3470201662.180383</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1594338946298572</v>
+        <v>0.1662053495144846</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04777548174627649</v>
+        <v>0.0446635009960941</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>174</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1089075669.447272</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_428.xlsx
+++ b/output/fit_clients/fit_round_428.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2022371327.913369</v>
+        <v>1666478163.817663</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1109922884952872</v>
+        <v>0.08141120127387923</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02877759183755814</v>
+        <v>0.0379977440464281</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2169119020.652778</v>
+        <v>1886863550.022338</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1827364324888675</v>
+        <v>0.126199424549562</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03946640895150025</v>
+        <v>0.04198090446706806</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4756767948.290051</v>
+        <v>4571066160.890468</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1022526031943438</v>
+        <v>0.1648541669875986</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02674204751919793</v>
+        <v>0.02856563160599095</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3331181382.728829</v>
+        <v>3692683081.082659</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07026856154026508</v>
+        <v>0.0890033828631225</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04906057329638554</v>
+        <v>0.03762691824799492</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2606675293.005453</v>
+        <v>2276579698.916989</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1215114846001473</v>
+        <v>0.1176579541345525</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03512035467383429</v>
+        <v>0.03755190600222126</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1929468643.511277</v>
+        <v>2221152628.615057</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0745850411055968</v>
+        <v>0.09393120303009424</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03143063277250453</v>
+        <v>0.03167031207346689</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3168699497.927526</v>
+        <v>3122737177.997538</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1814666400214026</v>
+        <v>0.2192171110926438</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02724167826587476</v>
+        <v>0.02779062351074484</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2209773526.745717</v>
+        <v>1540498542.5623</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1850851897502027</v>
+        <v>0.1519848878846563</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02444482114635755</v>
+        <v>0.03422583642134883</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3992083936.549826</v>
+        <v>4147111644.003892</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2099914291362755</v>
+        <v>0.2048817821864</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04054294790579561</v>
+        <v>0.03675302273056552</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3713939453.381203</v>
+        <v>2903105608.595892</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1243002281093133</v>
+        <v>0.1376068966390927</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04830945697094356</v>
+        <v>0.0359515834467017</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2799610364.374643</v>
+        <v>3126558933.770308</v>
       </c>
       <c r="F12" t="n">
-        <v>0.142191572000676</v>
+        <v>0.1577213043648659</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03820805584715287</v>
+        <v>0.04549089763908606</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4130621339.563716</v>
+        <v>3304007981.0086</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07838149425483473</v>
+        <v>0.076098338897834</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02095910178749214</v>
+        <v>0.01980026547691332</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2818893816.094912</v>
+        <v>2656779090.212391</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1177099044550292</v>
+        <v>0.1717110732689878</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04276453857052992</v>
+        <v>0.04289284806134774</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1414104993.634933</v>
+        <v>1456657716.198816</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07386177706406816</v>
+        <v>0.09565751838513757</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04830830276697355</v>
+        <v>0.03992339588541015</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2505629299.428885</v>
+        <v>2774629054.91424</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07136263213072255</v>
+        <v>0.1054041265295411</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03529499326230772</v>
+        <v>0.04454484766658163</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3466939696.858601</v>
+        <v>5216249013.33888</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1229033392199749</v>
+        <v>0.1340519060582247</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04045693646040455</v>
+        <v>0.03418527072070978</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2772614657.13905</v>
+        <v>3916743751.387671</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1379904664885505</v>
+        <v>0.1166388952606491</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02154696585100914</v>
+        <v>0.02650675963680682</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1029833727.752413</v>
+        <v>1031454761.815574</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1437395360007448</v>
+        <v>0.1308275359259104</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01663264997849115</v>
+        <v>0.02203496195525254</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2103311397.681312</v>
+        <v>2630957819.105925</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1150647830571395</v>
+        <v>0.09812424794044454</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02917652846290072</v>
+        <v>0.02817830638782806</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2448476771.10277</v>
+        <v>2177762917.24217</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07378930145181865</v>
+        <v>0.09989015256091788</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0328040270807143</v>
+        <v>0.04603896528965778</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3782562554.158896</v>
+        <v>2778600427.275781</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1107631100526604</v>
+        <v>0.13841750358644</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05083447131630834</v>
+        <v>0.05276010052171021</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1195309221.633387</v>
+        <v>1224734842.989253</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1126313612413524</v>
+        <v>0.1332444889303601</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05320448729599506</v>
+        <v>0.05327267731711481</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3377232169.664799</v>
+        <v>3439463170.15905</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1449546840417826</v>
+        <v>0.1382536005534168</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03601467543489843</v>
+        <v>0.02574968081693183</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1426422699.460187</v>
+        <v>1025492808.067323</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08099746691908637</v>
+        <v>0.08934537061409112</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01970891487379935</v>
+        <v>0.0210519791077602</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>911602696.1547954</v>
+        <v>1270995865.771507</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1160583122750276</v>
+        <v>0.08297979688958383</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03014656654050368</v>
+        <v>0.03700353499502852</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3391402107.796284</v>
+        <v>3129418312.210793</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1380985566260655</v>
+        <v>0.1123218368588148</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02528802725259249</v>
+        <v>0.01643048904027668</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2941448023.831702</v>
+        <v>2357946974.729304</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09406602374922349</v>
+        <v>0.0935832816858623</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04631878266347209</v>
+        <v>0.04960653682963102</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5602454293.656593</v>
+        <v>3788194977.403228</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1348804068497615</v>
+        <v>0.113797897115904</v>
       </c>
       <c r="G29" t="n">
-        <v>0.031794486422945</v>
+        <v>0.03362609681181122</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1679614194.841091</v>
+        <v>2383429168.478895</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09481060871716941</v>
+        <v>0.08601757852917644</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02423960174788269</v>
+        <v>0.02665817131684644</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>918085331.3361058</v>
+        <v>1063686071.910032</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09419603099500885</v>
+        <v>0.07321887949865179</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03949682626430116</v>
+        <v>0.04145072011149984</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1275190665.363272</v>
+        <v>1208054254.893936</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09258179564960585</v>
+        <v>0.07284767925289776</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03061720215638938</v>
+        <v>0.03597150318004995</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2462855987.926171</v>
+        <v>2455608916.150763</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1498512542444788</v>
+        <v>0.1558320102044974</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0510829731777005</v>
+        <v>0.04706312743075665</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1552166300.550155</v>
+        <v>1289483505.221403</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08606275406454091</v>
+        <v>0.08970197789567691</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0212812613959075</v>
+        <v>0.01947605852194849</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1306380368.122242</v>
+        <v>1029724140.018628</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08848864194163673</v>
+        <v>0.07878159715500208</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04295329914998645</v>
+        <v>0.03540788373709813</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2411406349.815643</v>
+        <v>2833714668.578386</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1727664555132956</v>
+        <v>0.1733166850527599</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01813994763639337</v>
+        <v>0.02015798013215901</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1949703455.833911</v>
+        <v>2646984061.151372</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1087644353616458</v>
+        <v>0.1073330070901229</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02564377227473032</v>
+        <v>0.02864653688880242</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2090355405.984294</v>
+        <v>1740546089.164749</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07386720149890776</v>
+        <v>0.111939778400072</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03002483362307305</v>
+        <v>0.03653760168915606</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1355867409.884858</v>
+        <v>1636474778.557681</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1877893331277221</v>
+        <v>0.153618839478128</v>
       </c>
       <c r="G39" t="n">
-        <v>0.025499004776764</v>
+        <v>0.03022686284080391</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1242203233.790502</v>
+        <v>1778579769.872429</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1270800339333145</v>
+        <v>0.1616242745927892</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05430674350850843</v>
+        <v>0.04509922246792723</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1985083269.117002</v>
+        <v>2585703875.592782</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1276221173808807</v>
+        <v>0.1022053271507834</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04101414109087871</v>
+        <v>0.04721990481725778</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2777492318.435</v>
+        <v>3869956651.201965</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1062576719928913</v>
+        <v>0.1274729662810506</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03592237825523462</v>
+        <v>0.03836115887492415</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2983995664.432402</v>
+        <v>2513880634.657722</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1912279696198156</v>
+        <v>0.1539220302928263</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02044410479636605</v>
+        <v>0.02566169088279075</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2124807262.313438</v>
+        <v>1762717613.0886</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08386918873057539</v>
+        <v>0.09178836332574085</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02549124811482798</v>
+        <v>0.0265894007887106</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1812930898.771243</v>
+        <v>1974231461.74516</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1549459981316883</v>
+        <v>0.1599416701708009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03560539838727995</v>
+        <v>0.04924873629031538</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3781378508.553307</v>
+        <v>5090754619.119125</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1148175515266132</v>
+        <v>0.1474807458486456</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03737604571387602</v>
+        <v>0.03996561960851771</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3817900271.574785</v>
+        <v>4237351261.805788</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1725827994084442</v>
+        <v>0.1722549788881186</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0512036622171081</v>
+        <v>0.04853648267154254</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4588229310.399194</v>
+        <v>3029788895.517972</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1067157483878808</v>
+        <v>0.07137998715518636</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03533913585581726</v>
+        <v>0.0324976562856303</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1580425462.372489</v>
+        <v>1681090749.926553</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1194925487458835</v>
+        <v>0.1221715582356616</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03621302800706781</v>
+        <v>0.04199096366423063</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3371265095.27006</v>
+        <v>3683578506.862225</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1603399361644905</v>
+        <v>0.1568944964368164</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0458802574117995</v>
+        <v>0.05233032204023189</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1115569345.275369</v>
+        <v>1310006104.794975</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1442478378905921</v>
+        <v>0.1731556575803716</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03627552172058714</v>
+        <v>0.04223029945718307</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4738533212.554805</v>
+        <v>3545093093.565402</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1054836205314116</v>
+        <v>0.118454189853345</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04471202576658014</v>
+        <v>0.05910822807222368</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3446032788.851458</v>
+        <v>3277478844.123289</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1739891594264824</v>
+        <v>0.124633873909653</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03389411364414473</v>
+        <v>0.03136631929679191</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3360239168.607496</v>
+        <v>4731773240.905135</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1241623772999173</v>
+        <v>0.1412728584176266</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04110565100442485</v>
+        <v>0.04019868132955045</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4449409441.373216</v>
+        <v>3018591640.576646</v>
       </c>
       <c r="F55" t="n">
-        <v>0.149724980555939</v>
+        <v>0.1623596124013482</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03174392815877099</v>
+        <v>0.02785197920225821</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1380320672.409856</v>
+        <v>1790594671.992589</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1261380163854623</v>
+        <v>0.13453907049889</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0383534888039735</v>
+        <v>0.04044306947848475</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2763477739.223863</v>
+        <v>3299851235.397455</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1556960857284094</v>
+        <v>0.1766751583496478</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0167370598628918</v>
+        <v>0.0180148778477451</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1636752034.436219</v>
+        <v>1616160319.602465</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1322964435442439</v>
+        <v>0.1889998542137428</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02916242934540974</v>
+        <v>0.0269314341997671</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3507957369.673282</v>
+        <v>5048976982.237538</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09575381353420606</v>
+        <v>0.1058874764252955</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03303267044219534</v>
+        <v>0.0480729998015615</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3722459430.419558</v>
+        <v>3253638675.194525</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1775143014231541</v>
+        <v>0.1799243766507627</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02639044689244291</v>
+        <v>0.027599621918789</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3032946422.323061</v>
+        <v>2228962324.172804</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1630186653966584</v>
+        <v>0.1183863336000757</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02815455744241088</v>
+        <v>0.02471961693834203</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1431662473.724735</v>
+        <v>2010560672.105028</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1685924117794406</v>
+        <v>0.1259500376207515</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03403866680859607</v>
+        <v>0.03775546432781911</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4095563249.286221</v>
+        <v>3872051341.115385</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1049070573491882</v>
+        <v>0.1038157167259905</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02940377417245743</v>
+        <v>0.03020882662507397</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3850468534.017289</v>
+        <v>4056116590.796064</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1544043351750614</v>
+        <v>0.1427217945867999</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03301649757332232</v>
+        <v>0.02822925603065144</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5337446580.87572</v>
+        <v>5748811824.09294</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1444351922701703</v>
+        <v>0.1222801949227994</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02998209107965157</v>
+        <v>0.02753023247307667</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4222660922.484534</v>
+        <v>4865833901.330672</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1515313574747139</v>
+        <v>0.16087816937056</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04203045656494001</v>
+        <v>0.04559821965078606</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3023824832.637326</v>
+        <v>2944300847.676976</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06266193366175042</v>
+        <v>0.1012433713385797</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04588085307805696</v>
+        <v>0.03489061809379634</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5153746552.465603</v>
+        <v>4414188118.724874</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1055960882674857</v>
+        <v>0.1469196554949598</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04776989719637974</v>
+        <v>0.04182158238203897</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1636538604.579321</v>
+        <v>1982545661.653394</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1281318974076225</v>
+        <v>0.1239607675745048</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03662334483918597</v>
+        <v>0.04451440041286359</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3574619361.48209</v>
+        <v>3691530772.319749</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09744046510733255</v>
+        <v>0.09550561693038881</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0377918266299412</v>
+        <v>0.04860881043423274</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4042458137.625626</v>
+        <v>4022977914.345197</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1557529018918416</v>
+        <v>0.1534739341107182</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03209218061221735</v>
+        <v>0.02733259294900295</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1390119173.841178</v>
+        <v>1851219984.901984</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07765750715398648</v>
+        <v>0.06645060282256768</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03741279587520932</v>
+        <v>0.04376045169717715</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3006607260.820489</v>
+        <v>2264688763.616673</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06850759762354772</v>
+        <v>0.1077801307231533</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04654203936456026</v>
+        <v>0.03642884641127862</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2432731890.992791</v>
+        <v>3929843972.783769</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1448046967886535</v>
+        <v>0.1758159895997417</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02259517853447476</v>
+        <v>0.0317855804078269</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2288430928.791284</v>
+        <v>2149722715.455459</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1470054483602589</v>
+        <v>0.1121023919975302</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02408946870136392</v>
+        <v>0.03230342876806297</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4711521674.114873</v>
+        <v>3646495926.48848</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09216341488483529</v>
+        <v>0.08702506256506425</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02904906405807188</v>
+        <v>0.03214104490304231</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1937854346.556731</v>
+        <v>1733136838.044872</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1438738621279695</v>
+        <v>0.1828124200162739</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03071141391941923</v>
+        <v>0.02689110878966797</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3296827614.182988</v>
+        <v>4425196586.849233</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08648802925837196</v>
+        <v>0.1209244932806555</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04138678612092379</v>
+        <v>0.03886521500104736</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1674853392.406921</v>
+        <v>1245246024.533853</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1348987142857075</v>
+        <v>0.1328760462735304</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03488459980756148</v>
+        <v>0.04008991588516075</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4575330575.31216</v>
+        <v>4778359516.383291</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09998777444378772</v>
+        <v>0.09736413763992413</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02794237163399444</v>
+        <v>0.03013699215811559</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3985308190.180179</v>
+        <v>3877454722.577458</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1051262731904147</v>
+        <v>0.1095448654513241</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02311336815515715</v>
+        <v>0.03175087199805633</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5646909000.068769</v>
+        <v>3423217933.130469</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1333526120751164</v>
+        <v>0.2083569850038691</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02639748716246769</v>
+        <v>0.02688604588651074</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1989435971.468314</v>
+        <v>2378243291.465476</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1239808039446911</v>
+        <v>0.1143487792530542</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03696351124447667</v>
+        <v>0.04018008846094989</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2454289576.665082</v>
+        <v>2241417422.321321</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1072879288667133</v>
+        <v>0.08684341698460217</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03734204204992637</v>
+        <v>0.05058847529686509</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3064032208.745696</v>
+        <v>2616405256.777616</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1453324550162367</v>
+        <v>0.1434923356877748</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04860934435281364</v>
+        <v>0.05405060607438571</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2664407778.930438</v>
+        <v>2317413698.038716</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1626542006707798</v>
+        <v>0.1216348042333382</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02663250142973272</v>
+        <v>0.01716023883155055</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>916553203.2622035</v>
+        <v>1052309525.508871</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1744924810335937</v>
+        <v>0.1873896812354456</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04445985844209367</v>
+        <v>0.03506331452776455</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2630107942.810125</v>
+        <v>3311705230.139057</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1767058029847784</v>
+        <v>0.1562063341622657</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03151345774649748</v>
+        <v>0.03510943820202962</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3139567053.821825</v>
+        <v>3350396900.837647</v>
       </c>
       <c r="F89" t="n">
-        <v>0.147066013949878</v>
+        <v>0.1338038084503751</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02958864985962392</v>
+        <v>0.03897425270080005</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1309785976.182996</v>
+        <v>1530002493.09505</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08472040864403656</v>
+        <v>0.1122352743464413</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03943952261212268</v>
+        <v>0.04882319800033582</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1704497304.552876</v>
+        <v>2093491379.478791</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1950750647050706</v>
+        <v>0.1914780789375285</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03870630721234139</v>
+        <v>0.05785666863092959</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2681084680.443121</v>
+        <v>2354213113.617927</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1000457941502097</v>
+        <v>0.08576702727565369</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04675613851646477</v>
+        <v>0.04008159168112462</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4811063001.750166</v>
+        <v>3748798824.086155</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09786615739933968</v>
+        <v>0.09569698233242399</v>
       </c>
       <c r="G93" t="n">
-        <v>0.053863690859264</v>
+        <v>0.04000585451736407</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2185679659.762628</v>
+        <v>1963376626.238951</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1432195630244333</v>
+        <v>0.1474593293064133</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0368195532481498</v>
+        <v>0.02763976628598816</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2513033888.976278</v>
+        <v>2970018210.464131</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1282361932282412</v>
+        <v>0.1202537131003794</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03905443337492248</v>
+        <v>0.04408297459749258</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2050919257.041014</v>
+        <v>1597981266.097644</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1003722513425923</v>
+        <v>0.1362367697133659</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04653268447954829</v>
+        <v>0.03281490562379872</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3829032222.718728</v>
+        <v>3695648326.78404</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1667683024675071</v>
+        <v>0.1434102672565092</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02482083383756772</v>
+        <v>0.0250312460332717</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3727529196.496853</v>
+        <v>3642878156.145175</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0806677247069785</v>
+        <v>0.1291334512579369</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02591807473584077</v>
+        <v>0.02964724460947626</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3004482226.642838</v>
+        <v>3376798734.830676</v>
       </c>
       <c r="F99" t="n">
-        <v>0.133012328060863</v>
+        <v>0.1121861580732944</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03057460231981164</v>
+        <v>0.03103169117804642</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4000086520.615282</v>
+        <v>4516961441.95602</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1631614237904364</v>
+        <v>0.1754397458893335</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02221511475175085</v>
+        <v>0.01890603983950806</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3470201662.180383</v>
+        <v>3061355574.447358</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1662053495144846</v>
+        <v>0.1967929337464488</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0446635009960941</v>
+        <v>0.04755192495514521</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_428.xlsx
+++ b/output/fit_clients/fit_round_428.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1666478163.817663</v>
+        <v>1768407197.724688</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08141120127387923</v>
+        <v>0.07302410341091359</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0379977440464281</v>
+        <v>0.04419906622619037</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1886863550.022338</v>
+        <v>1885473373.491442</v>
       </c>
       <c r="F3" t="n">
-        <v>0.126199424549562</v>
+        <v>0.1198798043370774</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04198090446706806</v>
+        <v>0.04229546731840784</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4571066160.890468</v>
+        <v>4109486549.152332</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1648541669875986</v>
+        <v>0.1361420018637174</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02856563160599095</v>
+        <v>0.02560734140311578</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>217</v>
+      </c>
+      <c r="J4" t="n">
+        <v>428</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3692683081.082659</v>
+        <v>3639955849.896516</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0890033828631225</v>
+        <v>0.1089847199745685</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03762691824799492</v>
+        <v>0.0332560647845348</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>176</v>
+      </c>
+      <c r="J5" t="n">
+        <v>428</v>
+      </c>
+      <c r="K5" t="n">
+        <v>51.14167611334837</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2276579698.916989</v>
+        <v>2421635616.060223</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1176579541345525</v>
+        <v>0.104930417155429</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03755190600222126</v>
+        <v>0.04015963433432868</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2221152628.615057</v>
+        <v>2143764313.297431</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09393120303009424</v>
+        <v>0.08171814712969827</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03167031207346689</v>
+        <v>0.04179345943792104</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3122737177.997538</v>
+        <v>3064181287.010435</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2192171110926438</v>
+        <v>0.1357160758816517</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02779062351074484</v>
+        <v>0.02534378113702357</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>114</v>
+      </c>
+      <c r="J8" t="n">
+        <v>422</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1540498542.5623</v>
+        <v>2271210906.361853</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1519848878846563</v>
+        <v>0.1227824375161728</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03422583642134883</v>
+        <v>0.02330662444583404</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4147111644.003892</v>
+        <v>3864886519.244441</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2048817821864</v>
+        <v>0.1788501942862818</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03675302273056552</v>
+        <v>0.04334587871815236</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>339</v>
+      </c>
+      <c r="J10" t="n">
+        <v>427</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36.95575487820101</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2903105608.595892</v>
+        <v>2973254822.19099</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1376068966390927</v>
+        <v>0.1412186298781178</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0359515834467017</v>
+        <v>0.03014054843127803</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>177</v>
+      </c>
+      <c r="J11" t="n">
+        <v>424</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3126558933.770308</v>
+        <v>2873985968.454118</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1577213043648659</v>
+        <v>0.1504303644520923</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04549089763908606</v>
+        <v>0.04354108608938126</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3304007981.0086</v>
+        <v>3749513558.982585</v>
       </c>
       <c r="F13" t="n">
-        <v>0.076098338897834</v>
+        <v>0.09184327817411396</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01980026547691332</v>
+        <v>0.03133454189454555</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>224</v>
+      </c>
+      <c r="J13" t="n">
+        <v>427</v>
+      </c>
+      <c r="K13" t="n">
+        <v>39.75195856058912</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2656779090.212391</v>
+        <v>3430766956.844328</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1717110732689878</v>
+        <v>0.1860237050922963</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04289284806134774</v>
+        <v>0.03710124100239078</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>92</v>
+      </c>
+      <c r="J14" t="n">
+        <v>426</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1456657716.198816</v>
+        <v>1840741368.601947</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09565751838513757</v>
+        <v>0.08704189581682883</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03992339588541015</v>
+        <v>0.03985230115182328</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2774629054.91424</v>
+        <v>1955059476.06607</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1054041265295411</v>
+        <v>0.07637791498850784</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04454484766658163</v>
+        <v>0.04259418210411078</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5216249013.33888</v>
+        <v>4301430808.125765</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1340519060582247</v>
+        <v>0.1565336629734463</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03418527072070978</v>
+        <v>0.03713783843030542</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>208</v>
+      </c>
+      <c r="J17" t="n">
+        <v>427</v>
+      </c>
+      <c r="K17" t="n">
+        <v>38.63844743470159</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3916743751.387671</v>
+        <v>2807944216.38576</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1166388952606491</v>
+        <v>0.1165469576328036</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02650675963680682</v>
+        <v>0.02678196307064661</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>111</v>
+      </c>
+      <c r="J18" t="n">
+        <v>427</v>
+      </c>
+      <c r="K18" t="n">
+        <v>32.42382404694841</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1031454761.815574</v>
+        <v>827296532.9190165</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1308275359259104</v>
+        <v>0.145003201332786</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02203496195525254</v>
+        <v>0.01853477211102455</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2630957819.105925</v>
+        <v>1736947732.543355</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09812424794044454</v>
+        <v>0.1006388327654275</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02817830638782806</v>
+        <v>0.02597034963730537</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2177762917.24217</v>
+        <v>2380434222.984571</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09989015256091788</v>
+        <v>0.08991221424637204</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04603896528965778</v>
+        <v>0.03815106368784778</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2778600427.275781</v>
+        <v>3348159829.622565</v>
       </c>
       <c r="F22" t="n">
-        <v>0.13841750358644</v>
+        <v>0.08784410672464137</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05276010052171021</v>
+        <v>0.05433506015926413</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>122</v>
+      </c>
+      <c r="J22" t="n">
+        <v>428</v>
+      </c>
+      <c r="K22" t="n">
+        <v>43.84920901523193</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1224734842.989253</v>
+        <v>1200351781.565804</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1332444889303601</v>
+        <v>0.1655274341599811</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05327267731711481</v>
+        <v>0.05487770455645787</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3439463170.15905</v>
+        <v>4117164189.092991</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1382536005534168</v>
+        <v>0.1237920616677233</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02574968081693183</v>
+        <v>0.02512786695511094</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>135</v>
+      </c>
+      <c r="J24" t="n">
+        <v>428</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1025492808.067323</v>
+        <v>1058695130.180589</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08934537061409112</v>
+        <v>0.1012540374644106</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0210519791077602</v>
+        <v>0.03037242529422092</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1270995865.771507</v>
+        <v>1348688275.884047</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08297979688958383</v>
+        <v>0.100795993603063</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03700353499502852</v>
+        <v>0.0330174423738943</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3129418312.210793</v>
+        <v>4144976864.59227</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1123218368588148</v>
+        <v>0.1501935970121974</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01643048904027668</v>
+        <v>0.02475918906841507</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>184</v>
+      </c>
+      <c r="J27" t="n">
+        <v>428</v>
+      </c>
+      <c r="K27" t="n">
+        <v>43.0977829192397</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2357946974.729304</v>
+        <v>2476363203.485245</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0935832816858623</v>
+        <v>0.1230396725802201</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04960653682963102</v>
+        <v>0.03259676846162643</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>105</v>
+      </c>
+      <c r="J28" t="n">
+        <v>423</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3788194977.403228</v>
+        <v>4000237709.731472</v>
       </c>
       <c r="F29" t="n">
-        <v>0.113797897115904</v>
+        <v>0.1172831525085602</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03362609681181122</v>
+        <v>0.04109292808717177</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>355</v>
+      </c>
+      <c r="J29" t="n">
+        <v>427</v>
+      </c>
+      <c r="K29" t="n">
+        <v>39.9753895521473</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2383429168.478895</v>
+        <v>2272373067.290166</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08601757852917644</v>
+        <v>0.09847563892915273</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02665817131684644</v>
+        <v>0.03609148859094932</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1063686071.910032</v>
+        <v>1081737811.129236</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07321887949865179</v>
+        <v>0.09561686983887541</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04145072011149984</v>
+        <v>0.04944260112613759</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1208054254.893936</v>
+        <v>1400638692.007095</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07284767925289776</v>
+        <v>0.09001769060184296</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03597150318004995</v>
+        <v>0.02698791846019172</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2455608916.150763</v>
+        <v>2802232869.305727</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1558320102044974</v>
+        <v>0.1682718690909333</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04706312743075665</v>
+        <v>0.04422364708152237</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1289483505.221403</v>
+        <v>1288984730.984503</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08970197789567691</v>
+        <v>0.08361319412014478</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01947605852194849</v>
+        <v>0.02050893735908774</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1029724140.018628</v>
+        <v>1187915382.632044</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07878159715500208</v>
+        <v>0.1019947638322359</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03540788373709813</v>
+        <v>0.04470842004879714</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2833714668.578386</v>
+        <v>2603594848.139863</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1733166850527599</v>
+        <v>0.1701124129239033</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02015798013215901</v>
+        <v>0.02650689836838642</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2646984061.151372</v>
+        <v>2274445476.295075</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1073330070901229</v>
+        <v>0.07233522854235422</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02864653688880242</v>
+        <v>0.04091612628231221</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1777,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1740546089.164749</v>
+        <v>2202042883.474785</v>
       </c>
       <c r="F38" t="n">
-        <v>0.111939778400072</v>
+        <v>0.1112034163966361</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03653760168915606</v>
+        <v>0.02971062896508469</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1636474778.557681</v>
+        <v>1895160031.324435</v>
       </c>
       <c r="F39" t="n">
-        <v>0.153618839478128</v>
+        <v>0.1347231094864636</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03022686284080391</v>
+        <v>0.03243221139150607</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1778579769.872429</v>
+        <v>1100779295.770881</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1616242745927892</v>
+        <v>0.1197765346365914</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04509922246792723</v>
+        <v>0.0575962277569922</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2585703875.592782</v>
+        <v>2377344958.020413</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1022053271507834</v>
+        <v>0.1482135931703275</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04721990481725778</v>
+        <v>0.037579044601079</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1911,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3869956651.201965</v>
+        <v>4090258195.620163</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1274729662810506</v>
+        <v>0.1221567978775194</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03836115887492415</v>
+        <v>0.03362143090039786</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>183</v>
+      </c>
+      <c r="J42" t="n">
+        <v>428</v>
+      </c>
+      <c r="K42" t="n">
+        <v>59.4569866190178</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2513880634.657722</v>
+        <v>2991903044.495578</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1539220302928263</v>
+        <v>0.1235919894409507</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02566169088279075</v>
+        <v>0.01979508387776989</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1989,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1762717613.0886</v>
+        <v>2261281190.363771</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09178836332574085</v>
+        <v>0.07568397381485867</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0265894007887106</v>
+        <v>0.0232749869084823</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1974231461.74516</v>
+        <v>1734753848.405518</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1599416701708009</v>
+        <v>0.1448455982231607</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04924873629031538</v>
+        <v>0.04037185106171825</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2053,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5090754619.119125</v>
+        <v>5152148071.177683</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1474807458486456</v>
+        <v>0.1320217354544666</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03996561960851771</v>
+        <v>0.05959884938338158</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>255</v>
+      </c>
+      <c r="J46" t="n">
+        <v>428</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4237351261.805788</v>
+        <v>3911952705.399878</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1722549788881186</v>
+        <v>0.1835214849722035</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04853648267154254</v>
+        <v>0.04556365590372354</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>191</v>
+      </c>
+      <c r="J47" t="n">
+        <v>428</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3029788895.517972</v>
+        <v>3089865250.964248</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07137998715518636</v>
+        <v>0.08503323330346697</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0324976562856303</v>
+        <v>0.03131789995355436</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>219</v>
+      </c>
+      <c r="J48" t="n">
+        <v>426</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1681090749.926553</v>
+        <v>1647194957.69649</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1221715582356616</v>
+        <v>0.1827506883162287</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04199096366423063</v>
+        <v>0.04006041619172702</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3683578506.862225</v>
+        <v>3311591254.700097</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1568944964368164</v>
+        <v>0.1699626653836803</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05233032204023189</v>
+        <v>0.04165574382600946</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>149</v>
+      </c>
+      <c r="J50" t="n">
+        <v>427</v>
+      </c>
+      <c r="K50" t="n">
+        <v>41.64568789246893</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1310006104.794975</v>
+        <v>1417745290.408235</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1731556575803716</v>
+        <v>0.1924527519809051</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04223029945718307</v>
+        <v>0.05196151440258379</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3545093093.565402</v>
+        <v>4283911799.648054</v>
       </c>
       <c r="F52" t="n">
-        <v>0.118454189853345</v>
+        <v>0.08755718095016833</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05910822807222368</v>
+        <v>0.04035437448930491</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>246</v>
+      </c>
+      <c r="J52" t="n">
+        <v>427</v>
+      </c>
+      <c r="K52" t="n">
+        <v>39.43808027249094</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2308,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3277478844.123289</v>
+        <v>3027764726.767872</v>
       </c>
       <c r="F53" t="n">
-        <v>0.124633873909653</v>
+        <v>0.1813775570588942</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03136631929679191</v>
+        <v>0.03558539522538011</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>63</v>
+      </c>
+      <c r="J53" t="n">
+        <v>424</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4731773240.905135</v>
+        <v>3121625570.487243</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1412728584176266</v>
+        <v>0.1470623317334517</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04019868132955045</v>
+        <v>0.0387587717593706</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>229</v>
+      </c>
+      <c r="J54" t="n">
+        <v>427</v>
+      </c>
+      <c r="K54" t="n">
+        <v>28.32105464663036</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2380,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3018591640.576646</v>
+        <v>4586873549.991346</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1623596124013482</v>
+        <v>0.2154545740762887</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02785197920225821</v>
+        <v>0.03073376693096522</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>212</v>
+      </c>
+      <c r="J55" t="n">
+        <v>427</v>
+      </c>
+      <c r="K55" t="n">
+        <v>40.88071970618404</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1790594671.992589</v>
+        <v>1541663997.248435</v>
       </c>
       <c r="F56" t="n">
-        <v>0.13453907049889</v>
+        <v>0.160576616982492</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04044306947848475</v>
+        <v>0.04929092371567796</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2446,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3299851235.397455</v>
+        <v>3827233676.989271</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1766751583496478</v>
+        <v>0.1117954998394477</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0180148778477451</v>
+        <v>0.02039952836471138</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>186</v>
+      </c>
+      <c r="J57" t="n">
+        <v>428</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1616160319.602465</v>
+        <v>1639182063.740465</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1889998542137428</v>
+        <v>0.2021262112166412</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0269314341997671</v>
+        <v>0.03439731833987974</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2516,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5048976982.237538</v>
+        <v>4377939966.822037</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1058874764252955</v>
+        <v>0.0797535999040154</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0480729998015615</v>
+        <v>0.04221793929098301</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>209</v>
+      </c>
+      <c r="J59" t="n">
+        <v>428</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3253638675.194525</v>
+        <v>3191229836.497079</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1799243766507627</v>
+        <v>0.1481949127344201</v>
       </c>
       <c r="G60" t="n">
-        <v>0.027599621918789</v>
+        <v>0.02721036000449737</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>82</v>
+      </c>
+      <c r="J60" t="n">
+        <v>420</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2228962324.172804</v>
+        <v>2310102121.6674</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1183863336000757</v>
+        <v>0.1206905687904189</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02471961693834203</v>
+        <v>0.02770965619246334</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2010560672.105028</v>
+        <v>1417099424.123804</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1259500376207515</v>
+        <v>0.1266598157455461</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03775546432781911</v>
+        <v>0.03950924571012564</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3872051341.115385</v>
+        <v>4330667101.081393</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1038157167259905</v>
+        <v>0.0787344655395051</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03020882662507397</v>
+        <v>0.03585328696579929</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>213</v>
+      </c>
+      <c r="J63" t="n">
+        <v>428</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4056116590.796064</v>
+        <v>3907599348.280404</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1427217945867999</v>
+        <v>0.1743284619758869</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02822925603065144</v>
+        <v>0.03436084117028526</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>214</v>
+      </c>
+      <c r="J64" t="n">
+        <v>428</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2732,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5748811824.09294</v>
+        <v>5114759473.288218</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1222801949227994</v>
+        <v>0.1532649880889873</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02753023247307667</v>
+        <v>0.03060194682246778</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>311</v>
+      </c>
+      <c r="J65" t="n">
+        <v>428</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4865833901.330672</v>
+        <v>4871171557.028811</v>
       </c>
       <c r="F66" t="n">
-        <v>0.16087816937056</v>
+        <v>0.11468169716899</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04559821965078606</v>
+        <v>0.03976009015969962</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>211</v>
+      </c>
+      <c r="J66" t="n">
+        <v>427</v>
+      </c>
+      <c r="K66" t="n">
+        <v>40.59732992207536</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2944300847.676976</v>
+        <v>2609561653.953739</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1012433713385797</v>
+        <v>0.1013735422667649</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03489061809379634</v>
+        <v>0.0492064656370262</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4414188118.724874</v>
+        <v>4989605834.053851</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1469196554949598</v>
+        <v>0.1016519310650826</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04182158238203897</v>
+        <v>0.04515865822596239</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>233</v>
+      </c>
+      <c r="J68" t="n">
+        <v>428</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1982545661.653394</v>
+        <v>1694549492.363869</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1239607675745048</v>
+        <v>0.1340945100896621</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04451440041286359</v>
+        <v>0.04759198990754381</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3691530772.319749</v>
+        <v>2596382909.522736</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09550561693038881</v>
+        <v>0.06847930998744052</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04860881043423274</v>
+        <v>0.04769707626609564</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4022977914.345197</v>
+        <v>4159181156.500433</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1534739341107182</v>
+        <v>0.1836429683581036</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02733259294900295</v>
+        <v>0.02784845461843963</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>298</v>
+      </c>
+      <c r="J71" t="n">
+        <v>427</v>
+      </c>
+      <c r="K71" t="n">
+        <v>37.27103569065141</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1851219984.901984</v>
+        <v>2122875538.941532</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06645060282256768</v>
+        <v>0.07206751470064647</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04376045169717715</v>
+        <v>0.04622389757062881</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2264688763.616673</v>
+        <v>3100601057.994712</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1077801307231533</v>
+        <v>0.07031408003098298</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03642884641127862</v>
+        <v>0.0326991943167932</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>30</v>
+      </c>
+      <c r="J73" t="n">
+        <v>426</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3929843972.783769</v>
+        <v>4008583071.729945</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1758159895997417</v>
+        <v>0.1257112645723186</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0317855804078269</v>
+        <v>0.02704367648128031</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>123</v>
+      </c>
+      <c r="J74" t="n">
+        <v>428</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2149722715.455459</v>
+        <v>2496049633.236082</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1121023919975302</v>
+        <v>0.1308586804905621</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03230342876806297</v>
+        <v>0.02896102553802523</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3646495926.48848</v>
+        <v>3427949378.455628</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08702506256506425</v>
+        <v>0.1065050220362858</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03214104490304231</v>
+        <v>0.02336619118352448</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>204</v>
+      </c>
+      <c r="J76" t="n">
+        <v>427</v>
+      </c>
+      <c r="K76" t="n">
+        <v>33.72853417607333</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1733136838.044872</v>
+        <v>1529035358.551686</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1828124200162739</v>
+        <v>0.1395819913888398</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02689110878966797</v>
+        <v>0.02049872252452533</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4425196586.849233</v>
+        <v>3462968372.198349</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1209244932806555</v>
+        <v>0.1286613290915124</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03886521500104736</v>
+        <v>0.03885780869311932</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>214</v>
+      </c>
+      <c r="J78" t="n">
+        <v>428</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1245246024.533853</v>
+        <v>1385726972.937169</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1328760462735304</v>
+        <v>0.1206691533002513</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04008991588516075</v>
+        <v>0.03091111166201485</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4778359516.383291</v>
+        <v>5087450649.06261</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09736413763992413</v>
+        <v>0.09078688144914875</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03013699215811559</v>
+        <v>0.02601020200322272</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>208</v>
+      </c>
+      <c r="J80" t="n">
+        <v>428</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3298,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3877454722.577458</v>
+        <v>4630659524.050427</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1095448654513241</v>
+        <v>0.1190621801660071</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03175087199805633</v>
+        <v>0.02269960520325702</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>198</v>
+      </c>
+      <c r="J81" t="n">
+        <v>428</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3327,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3423217933.130469</v>
+        <v>4125290123.923194</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2083569850038691</v>
+        <v>0.174347673819518</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02688604588651074</v>
+        <v>0.02774141315006698</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>289</v>
+      </c>
+      <c r="J82" t="n">
+        <v>428</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3368,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2378243291.465476</v>
+        <v>2096730589.400806</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1143487792530542</v>
+        <v>0.1305567775389928</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04018008846094989</v>
+        <v>0.03503014032798112</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2241417422.321321</v>
+        <v>1933255282.511336</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08684341698460217</v>
+        <v>0.1069696065129414</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05058847529686509</v>
+        <v>0.04669079149552151</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2616405256.777616</v>
+        <v>2879279914.252953</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1434923356877748</v>
+        <v>0.1626089796402284</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05405060607438571</v>
+        <v>0.04055562303342574</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>55</v>
+      </c>
+      <c r="J85" t="n">
+        <v>421</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2317413698.038716</v>
+        <v>2444487172.236767</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1216348042333382</v>
+        <v>0.1425180243429861</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01716023883155055</v>
+        <v>0.02151834205268423</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1052309525.508871</v>
+        <v>998703567.1297829</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1873896812354456</v>
+        <v>0.1300985703206157</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03506331452776455</v>
+        <v>0.03642898291210074</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,16 +3543,25 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3311705230.139057</v>
+        <v>3455663656.441524</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1562063341622657</v>
+        <v>0.11419434595386</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03510943820202962</v>
+        <v>0.03015128659516195</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>55</v>
+      </c>
+      <c r="J88" t="n">
+        <v>428</v>
+      </c>
+      <c r="K88" t="n">
+        <v>61.753761275698</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3350396900.837647</v>
+        <v>3070954562.750354</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1338038084503751</v>
+        <v>0.1035284414753247</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03897425270080005</v>
+        <v>0.03579264404642382</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1530002493.09505</v>
+        <v>2135329917.265205</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1122352743464413</v>
+        <v>0.1026378906770133</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04882319800033582</v>
+        <v>0.04498276882805924</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2093491379.478791</v>
+        <v>1466767461.802118</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1914780789375285</v>
+        <v>0.1382923761626811</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05785666863092959</v>
+        <v>0.05700804857057325</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2354213113.617927</v>
+        <v>2833760019.474574</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08576702727565369</v>
+        <v>0.09875382180780119</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04008159168112462</v>
+        <v>0.03171025363678216</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3748798824.086155</v>
+        <v>3197254336.7594</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09569698233242399</v>
+        <v>0.1376044078577164</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04000585451736407</v>
+        <v>0.04417780375838667</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>206</v>
+      </c>
+      <c r="J93" t="n">
+        <v>427</v>
+      </c>
+      <c r="K93" t="n">
+        <v>30.24485552244309</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1963376626.238951</v>
+        <v>2351710332.451988</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1474593293064133</v>
+        <v>0.1519093287825516</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02763976628598816</v>
+        <v>0.02848273288034127</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2970018210.464131</v>
+        <v>2646744014.765909</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1202537131003794</v>
+        <v>0.1072251712934647</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04408297459749258</v>
+        <v>0.04546095742965491</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1597981266.097644</v>
+        <v>1852803670.750389</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1362367697133659</v>
+        <v>0.1241691943050984</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03281490562379872</v>
+        <v>0.04735681357539686</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3695648326.78404</v>
+        <v>3346149997.375716</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1434102672565092</v>
+        <v>0.108545317710104</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0250312460332717</v>
+        <v>0.0184996959970341</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>224</v>
+      </c>
+      <c r="J97" t="n">
+        <v>427</v>
+      </c>
+      <c r="K97" t="n">
+        <v>32.68837612051582</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3642878156.145175</v>
+        <v>2857034648.640451</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1291334512579369</v>
+        <v>0.09591646293484746</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02964724460947626</v>
+        <v>0.03245307278075589</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>109</v>
+      </c>
+      <c r="J98" t="n">
+        <v>426</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3376798734.830676</v>
+        <v>3200412724.41565</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1121861580732944</v>
+        <v>0.1307481174147949</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03103169117804642</v>
+        <v>0.03268671323162604</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4516961441.95602</v>
+        <v>3461744877.03345</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1754397458893335</v>
+        <v>0.1533816488100448</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01890603983950806</v>
+        <v>0.01710999995451496</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>200</v>
+      </c>
+      <c r="J100" t="n">
+        <v>427</v>
+      </c>
+      <c r="K100" t="n">
+        <v>37.27444695601253</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3061355574.447358</v>
+        <v>3336223094.918467</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1967929337464488</v>
+        <v>0.1806865891012862</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04755192495514521</v>
+        <v>0.03699464644536811</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
